--- a/hasil/2023_01_lipa_3.xlsx
+++ b/hasil/2023_01_lipa_3.xlsx
@@ -152,13 +152,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 09 Maret 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketua Pengadilan Agama Ternate </t>
-  </si>
-  <si>
-    <t>Panitera</t>
+    <t>Ternate , 10 Maret 2023</t>
+  </si>
+  <si>
+    <t>Ketua Pengadilan Agama Ternate ,</t>
+  </si>
+  <si>
+    <t>Panitera,</t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -754,7 +754,7 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="13.2" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -929,7 +929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" customHeight="1" ht="18">
+    <row r="10" spans="1:12" customHeight="1" ht="35">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:12" customHeight="1" ht="18">
+    <row r="11" spans="1:12" customHeight="1" ht="35">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -983,7 +983,7 @@
       </c>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:12" customHeight="1" ht="18">
+    <row r="12" spans="1:12" customHeight="1" ht="35">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:12" customHeight="1" ht="18">
+    <row r="13" spans="1:12" customHeight="1" ht="35">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:12" customHeight="1" ht="18">
+    <row r="14" spans="1:12" customHeight="1" ht="35">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="17" spans="1:12" customHeight="1" ht="20">
       <c r="A17" s="10"/>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -1109,10 +1109,10 @@
     </row>
     <row r="18" spans="1:12" customHeight="1" ht="20">
       <c r="A18" s="10"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="19" spans="1:12" customHeight="1" ht="13.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="20" spans="1:12" customHeight="1" ht="13.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="21" spans="1:12" customHeight="1" ht="13.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="22" spans="1:12" customHeight="1" ht="13.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="23" spans="1:12" customHeight="1" ht="20">
       <c r="A23" s="10"/>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="24" spans="1:12" customHeight="1" ht="20">
       <c r="A24" s="10"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>

--- a/hasil/2023_01_lipa_3.xlsx
+++ b/hasil/2023_01_lipa_3.xlsx
@@ -152,13 +152,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 10 Maret 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -178,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -239,6 +239,15 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
     </font>
@@ -436,19 +445,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
@@ -754,25 +763,25 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="13.2" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="12.75" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="true" style="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="true" style="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="true" style="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="true" style="1"/>
     <col min="3" max="3" width="21" customWidth="true" style="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="true" style="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="true" style="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="true" style="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="true" style="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="true" style="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="true" style="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="true" style="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true" style="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true" style="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="true" style="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true" style="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="true" style="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="true" style="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customHeight="1" ht="15.6">
+    <row r="1" spans="1:12" customHeight="1" ht="15.75">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -787,7 +796,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" customHeight="1" ht="15.6">
+    <row r="2" spans="1:12" customHeight="1" ht="15.75">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -802,7 +811,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12" customHeight="1" ht="15.6">
+    <row r="3" spans="1:12" customHeight="1" ht="15.75">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -818,18 +827,18 @@
       <c r="K3" s="11"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" customHeight="1" ht="13.8">
+    <row r="4" spans="1:12" customHeight="1" ht="14.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:12" customHeight="1" ht="15.6">
+    <row r="5" spans="1:12" customHeight="1" ht="15.75">
       <c r="K5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" customHeight="1" ht="13.8">
+    <row r="6" spans="1:12" customHeight="1" ht="16.5">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -848,7 +857,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:12" customHeight="1" ht="13.2">
+    <row r="7" spans="1:12" customHeight="1" ht="12.75">
       <c r="A7" s="13"/>
       <c r="B7" s="17" t="s">
         <v>7</v>
@@ -881,20 +890,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" customHeight="1" ht="32.4">
+    <row r="8" spans="1:12" customHeight="1" ht="32.45">
       <c r="A8" s="13"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:12" customHeight="1" ht="16.8">
+    <row r="9" spans="1:12" customHeight="1" ht="17.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1064,7 +1073,7 @@
       </c>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:12" customHeight="1" ht="13.2">
+    <row r="15" spans="1:12" customHeight="1" ht="12.75">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1077,7 +1086,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:12" customHeight="1" ht="13.2">
+    <row r="16" spans="1:12" customHeight="1" ht="12.75">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1092,125 +1101,125 @@
     </row>
     <row r="17" spans="1:12" customHeight="1" ht="20">
       <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="21" t="s">
         <v>43</v>
       </c>
+      <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21" t="s">
+      <c r="H17" s="21" t="s">
         <v>44</v>
       </c>
+      <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:12" customHeight="1" ht="20">
       <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="21" t="s">
         <v>45</v>
       </c>
+      <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21" t="s">
+      <c r="H18" s="21" t="s">
         <v>46</v>
       </c>
+      <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:12" customHeight="1" ht="13.2">
+    <row r="19" spans="1:12" customHeight="1" ht="12.75">
       <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:12" customHeight="1" ht="13.2">
+    <row r="20" spans="1:12" customHeight="1" ht="12.75">
       <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:12" customHeight="1" ht="13.2">
+    <row r="21" spans="1:12" customHeight="1" ht="12.75">
       <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:12" customHeight="1" ht="13.2">
+    <row r="22" spans="1:12" customHeight="1" ht="12.75">
       <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:12" customHeight="1" ht="20">
       <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="21" t="s">
         <v>47</v>
       </c>
+      <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21" t="s">
+      <c r="H23" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:12" customHeight="1" ht="20">
       <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="21" t="s">
         <v>49</v>
       </c>
+      <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21" t="s">
+      <c r="H24" s="21" t="s">
         <v>50</v>
       </c>
+      <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:12" customHeight="1" ht="13.2">
+    <row r="25" spans="1:12" customHeight="1" ht="12.75">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1223,7 +1232,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:12" customHeight="1" ht="13.2">
+    <row r="26" spans="1:12" customHeight="1" ht="12.75">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1236,7 +1245,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:12" customHeight="1" ht="13.2">
+    <row r="27" spans="1:12" customHeight="1" ht="12.75">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1249,7 +1258,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:12" customHeight="1" ht="13.2">
+    <row r="28" spans="1:12" customHeight="1" ht="12.75">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1262,7 +1271,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:12" customHeight="1" ht="13.2">
+    <row r="29" spans="1:12" customHeight="1" ht="12.75">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1275,7 +1284,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:12" customHeight="1" ht="13.2">
+    <row r="30" spans="1:12" customHeight="1" ht="12.75">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1288,7 +1297,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:12" customHeight="1" ht="13.2">
+    <row r="31" spans="1:12" customHeight="1" ht="12.75">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1301,7 +1310,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:12" customHeight="1" ht="13.2">
+    <row r="32" spans="1:12" customHeight="1" ht="12.75">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1314,7 +1323,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:12" customHeight="1" ht="13.2">
+    <row r="33" spans="1:12" customHeight="1" ht="12.75">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1327,7 +1336,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:12" customHeight="1" ht="13.2">
+    <row r="34" spans="1:12" customHeight="1" ht="12.75">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1340,7 +1349,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:12" customHeight="1" ht="13.2">
+    <row r="35" spans="1:12" customHeight="1" ht="12.75">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1353,7 +1362,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:12" customHeight="1" ht="13.2">
+    <row r="36" spans="1:12" customHeight="1" ht="12.75">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1366,7 +1375,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:12" customHeight="1" ht="13.2">
+    <row r="37" spans="1:12" customHeight="1" ht="12.75">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1379,7 +1388,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:12" customHeight="1" ht="13.2">
+    <row r="38" spans="1:12" customHeight="1" ht="12.75">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1392,7 +1401,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:12" customHeight="1" ht="13.2">
+    <row r="39" spans="1:12" customHeight="1" ht="12.75">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1405,7 +1414,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:12" customHeight="1" ht="13.2">
+    <row r="40" spans="1:12" customHeight="1" ht="12.75">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1418,7 +1427,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:12" customHeight="1" ht="13.2">
+    <row r="41" spans="1:12" customHeight="1" ht="12.75">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1431,7 +1440,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:12" customHeight="1" ht="13.2">
+    <row r="42" spans="1:12" customHeight="1" ht="12.75">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1444,7 +1453,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:12" customHeight="1" ht="13.2">
+    <row r="43" spans="1:12" customHeight="1" ht="12.75">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1457,7 +1466,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:12" customHeight="1" ht="13.2">
+    <row r="44" spans="1:12" customHeight="1" ht="12.75">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1470,7 +1479,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:12" customHeight="1" ht="13.2">
+    <row r="45" spans="1:12" customHeight="1" ht="12.75">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1483,7 +1492,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:12" customHeight="1" ht="13.2">
+    <row r="46" spans="1:12" customHeight="1" ht="12.75">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1496,7 +1505,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:12" customHeight="1" ht="13.2">
+    <row r="47" spans="1:12" customHeight="1" ht="12.75">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1509,7 +1518,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:12" customHeight="1" ht="13.2">
+    <row r="48" spans="1:12" customHeight="1" ht="12.75">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1522,7 +1531,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:12" customHeight="1" ht="13.2">
+    <row r="49" spans="1:12" customHeight="1" ht="12.75">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1535,7 +1544,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:12" customHeight="1" ht="13.2">
+    <row r="50" spans="1:12" customHeight="1" ht="12.75">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1548,7 +1557,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:12" customHeight="1" ht="13.2">
+    <row r="51" spans="1:12" customHeight="1" ht="12.75">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1561,7 +1570,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:12" customHeight="1" ht="13.2">
+    <row r="52" spans="1:12" customHeight="1" ht="12.75">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1574,7 +1583,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:12" customHeight="1" ht="13.2">
+    <row r="53" spans="1:12" customHeight="1" ht="12.75">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1587,7 +1596,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:12" customHeight="1" ht="13.2">
+    <row r="54" spans="1:12" customHeight="1" ht="12.75">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1600,7 +1609,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:12" customHeight="1" ht="13.2">
+    <row r="55" spans="1:12" customHeight="1" ht="12.75">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1613,7 +1622,7 @@
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:12" customHeight="1" ht="13.2">
+    <row r="56" spans="1:12" customHeight="1" ht="12.75">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1626,7 +1635,7 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:12" customHeight="1" ht="13.2">
+    <row r="57" spans="1:12" customHeight="1" ht="12.75">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1639,7 +1648,7 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:12" customHeight="1" ht="13.2">
+    <row r="58" spans="1:12" customHeight="1" ht="12.75">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1652,7 +1661,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:12" customHeight="1" ht="13.2">
+    <row r="59" spans="1:12" customHeight="1" ht="12.75">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1665,7 +1674,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:12" customHeight="1" ht="13.2">
+    <row r="60" spans="1:12" customHeight="1" ht="12.75">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1678,7 +1687,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:12" customHeight="1" ht="13.2">
+    <row r="61" spans="1:12" customHeight="1" ht="12.75">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -1691,7 +1700,7 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:12" customHeight="1" ht="13.2">
+    <row r="62" spans="1:12" customHeight="1" ht="12.75">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1704,7 +1713,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:12" customHeight="1" ht="13.2">
+    <row r="63" spans="1:12" customHeight="1" ht="12.75">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -1717,7 +1726,7 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:12" customHeight="1" ht="13.2">
+    <row r="64" spans="1:12" customHeight="1" ht="12.75">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -1730,7 +1739,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:12" customHeight="1" ht="13.2">
+    <row r="65" spans="1:12" customHeight="1" ht="12.75">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1743,7 +1752,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:12" customHeight="1" ht="13.2">
+    <row r="66" spans="1:12" customHeight="1" ht="12.75">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -1756,7 +1765,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:12" customHeight="1" ht="13.2">
+    <row r="67" spans="1:12" customHeight="1" ht="12.75">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -1769,7 +1778,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:12" customHeight="1" ht="13.2">
+    <row r="68" spans="1:12" customHeight="1" ht="12.75">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -1782,7 +1791,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:12" customHeight="1" ht="13.2">
+    <row r="69" spans="1:12" customHeight="1" ht="12.75">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -1795,7 +1804,7 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:12" customHeight="1" ht="13.2">
+    <row r="70" spans="1:12" customHeight="1" ht="12.75">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -1808,7 +1817,7 @@
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:12" customHeight="1" ht="13.2">
+    <row r="71" spans="1:12" customHeight="1" ht="12.75">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -1821,7 +1830,7 @@
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:12" customHeight="1" ht="13.2">
+    <row r="72" spans="1:12" customHeight="1" ht="12.75">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -1834,7 +1843,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:12" customHeight="1" ht="13.2">
+    <row r="73" spans="1:12" customHeight="1" ht="12.75">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -1847,7 +1856,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:12" customHeight="1" ht="13.2">
+    <row r="74" spans="1:12" customHeight="1" ht="12.75">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -1860,7 +1869,7 @@
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:12" customHeight="1" ht="13.2">
+    <row r="75" spans="1:12" customHeight="1" ht="12.75">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -1873,7 +1882,7 @@
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:12" customHeight="1" ht="13.2">
+    <row r="76" spans="1:12" customHeight="1" ht="12.75">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -1886,7 +1895,7 @@
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:12" customHeight="1" ht="13.2">
+    <row r="77" spans="1:12" customHeight="1" ht="12.75">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -1899,7 +1908,7 @@
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:12" customHeight="1" ht="13.2">
+    <row r="78" spans="1:12" customHeight="1" ht="12.75">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -1912,7 +1921,7 @@
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:12" customHeight="1" ht="13.2">
+    <row r="79" spans="1:12" customHeight="1" ht="12.75">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -1925,7 +1934,7 @@
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:12" customHeight="1" ht="13.2">
+    <row r="80" spans="1:12" customHeight="1" ht="12.75">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -1938,7 +1947,7 @@
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:12" customHeight="1" ht="13.2">
+    <row r="81" spans="1:12" customHeight="1" ht="12.75">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -1951,7 +1960,7 @@
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:12" customHeight="1" ht="13.2">
+    <row r="82" spans="1:12" customHeight="1" ht="12.75">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -1964,7 +1973,7 @@
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:12" customHeight="1" ht="13.2">
+    <row r="83" spans="1:12" customHeight="1" ht="12.75">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -1977,7 +1986,7 @@
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:12" customHeight="1" ht="13.2">
+    <row r="84" spans="1:12" customHeight="1" ht="12.75">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -1990,7 +1999,7 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:12" customHeight="1" ht="13.2">
+    <row r="85" spans="1:12" customHeight="1" ht="12.75">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -2003,7 +2012,7 @@
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:12" customHeight="1" ht="13.2">
+    <row r="86" spans="1:12" customHeight="1" ht="12.75">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -2016,7 +2025,7 @@
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:12" customHeight="1" ht="13.2">
+    <row r="87" spans="1:12" customHeight="1" ht="12.75">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -2029,7 +2038,7 @@
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:12" customHeight="1" ht="13.2">
+    <row r="88" spans="1:12" customHeight="1" ht="12.75">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -2042,7 +2051,7 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:12" customHeight="1" ht="13.2">
+    <row r="89" spans="1:12" customHeight="1" ht="12.75">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -2055,7 +2064,7 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:12" customHeight="1" ht="13.2">
+    <row r="90" spans="1:12" customHeight="1" ht="12.75">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -2068,7 +2077,7 @@
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:12" customHeight="1" ht="13.2">
+    <row r="91" spans="1:12" customHeight="1" ht="12.75">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2081,7 +2090,7 @@
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:12" customHeight="1" ht="13.2">
+    <row r="92" spans="1:12" customHeight="1" ht="12.75">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -2094,7 +2103,7 @@
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:12" customHeight="1" ht="13.2">
+    <row r="93" spans="1:12" customHeight="1" ht="12.75">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -2107,7 +2116,7 @@
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:12" customHeight="1" ht="13.2">
+    <row r="94" spans="1:12" customHeight="1" ht="12.75">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -2120,7 +2129,7 @@
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:12" customHeight="1" ht="13.2">
+    <row r="95" spans="1:12" customHeight="1" ht="12.75">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -2133,7 +2142,7 @@
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:12" customHeight="1" ht="13.2">
+    <row r="96" spans="1:12" customHeight="1" ht="12.75">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -2146,7 +2155,7 @@
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="1:12" customHeight="1" ht="13.2">
+    <row r="97" spans="1:12" customHeight="1" ht="12.75">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -2159,7 +2168,7 @@
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:12" customHeight="1" ht="13.2">
+    <row r="98" spans="1:12" customHeight="1" ht="12.75">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -2172,7 +2181,7 @@
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:12" customHeight="1" ht="13.2">
+    <row r="99" spans="1:12" customHeight="1" ht="12.75">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -2185,7 +2194,7 @@
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:12" customHeight="1" ht="13.2">
+    <row r="100" spans="1:12" customHeight="1" ht="12.75">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -2198,7 +2207,7 @@
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:12" customHeight="1" ht="13.2">
+    <row r="101" spans="1:12" customHeight="1" ht="12.75">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -2211,7 +2220,7 @@
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:12" customHeight="1" ht="13.2">
+    <row r="102" spans="1:12" customHeight="1" ht="12.75">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -2224,7 +2233,7 @@
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:12" customHeight="1" ht="13.2">
+    <row r="103" spans="1:12" customHeight="1" ht="12.75">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -2237,7 +2246,7 @@
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:12" customHeight="1" ht="13.2">
+    <row r="104" spans="1:12" customHeight="1" ht="12.75">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -2250,7 +2259,7 @@
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="1:12" customHeight="1" ht="13.2">
+    <row r="105" spans="1:12" customHeight="1" ht="12.75">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -2263,7 +2272,7 @@
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:12" customHeight="1" ht="13.2">
+    <row r="106" spans="1:12" customHeight="1" ht="12.75">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -2276,7 +2285,7 @@
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:12" customHeight="1" ht="13.2">
+    <row r="107" spans="1:12" customHeight="1" ht="12.75">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -2289,7 +2298,7 @@
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:12" customHeight="1" ht="13.2">
+    <row r="108" spans="1:12" customHeight="1" ht="12.75">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -2302,7 +2311,7 @@
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:12" customHeight="1" ht="13.2">
+    <row r="109" spans="1:12" customHeight="1" ht="12.75">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -2315,7 +2324,7 @@
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:12" customHeight="1" ht="13.2">
+    <row r="110" spans="1:12" customHeight="1" ht="12.75">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -2328,7 +2337,7 @@
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:12" customHeight="1" ht="13.2">
+    <row r="111" spans="1:12" customHeight="1" ht="12.75">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -2341,7 +2350,7 @@
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
     </row>
-    <row r="112" spans="1:12" customHeight="1" ht="13.2">
+    <row r="112" spans="1:12" customHeight="1" ht="12.75">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -2354,7 +2363,7 @@
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:12" customHeight="1" ht="13.2">
+    <row r="113" spans="1:12" customHeight="1" ht="12.75">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -2367,7 +2376,7 @@
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:12" customHeight="1" ht="13.2">
+    <row r="114" spans="1:12" customHeight="1" ht="12.75">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -2380,7 +2389,7 @@
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:12" customHeight="1" ht="13.2">
+    <row r="115" spans="1:12" customHeight="1" ht="12.75">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -2393,7 +2402,7 @@
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:12" customHeight="1" ht="13.2">
+    <row r="116" spans="1:12" customHeight="1" ht="12.75">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -2406,7 +2415,7 @@
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:12" customHeight="1" ht="13.2">
+    <row r="117" spans="1:12" customHeight="1" ht="12.75">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -2419,7 +2428,7 @@
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:12" customHeight="1" ht="13.2">
+    <row r="118" spans="1:12" customHeight="1" ht="12.75">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -2432,7 +2441,7 @@
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:12" customHeight="1" ht="13.2">
+    <row r="119" spans="1:12" customHeight="1" ht="12.75">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -2466,8 +2475,8 @@
     <mergeCell ref="K7:K8"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.82677165354331" right="0.19685039370079" top="0.51181102362205" bottom="0.51181102362205" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="5" orientation="landscape" scale="95" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.98425196850394" right="0.39370078740157" top="0.31496062992126" bottom="0.23622047244094" header="0" footer="0"/>
+  <pageSetup paperSize="14" orientation="landscape" scale="85" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/hasil/2023_01_lipa_3.xlsx
+++ b/hasil/2023_01_lipa_3.xlsx
@@ -152,7 +152,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_3.xlsx
+++ b/hasil/2023_01_lipa_3.xlsx
@@ -152,7 +152,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 04 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_3.xlsx
+++ b/hasil/2023_01_lipa_3.xlsx
@@ -152,7 +152,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 04 September 2023</t>
+    <t>Ternate , 05 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
